--- a/biology/Médecine/1151_en_santé_et_médecine/1151_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1151_en_santé_et_médecine/1151_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1151_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1151_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1151 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1151_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1151_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation à Rughi, près Porcari en Toscane, de l'ospedale di Santa Maria, hôpital de pèlerins placé sous la direction des chanoines de  San Frediano de Lucques[1],[2].
-Avant 1151 : « fondation de la léproserie de la Bajasse à Brioude, en Auvergne[3] ».
-Entre 1124 et 1151 : sous Algare, évêque de Coutances, « fondation à Bolleville, en Normandie, dans l'ancien canton de la Haye-du-Puits, par Richard de la Haye, […] d'un prieuré de l'abbaye de Lessay à usage de léproserie, placé sous le vocable de Sainte-Marie Madeleine […], établissement élitiste réservé surtout à des membres de la noblesse[4] ».
-1151[5] (1150-1153[6]) : Pierre Ier, vicomte de Béarn, fonde à Ordios, entre Bordeaux et Ostabat, sur le chemin de Saint-Jacques, un hôpital de pèlerins  qui fonctionnera encore en 1739.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation à Rughi, près Porcari en Toscane, de l'ospedale di Santa Maria, hôpital de pèlerins placé sous la direction des chanoines de  San Frediano de Lucques,.
+Avant 1151 : « fondation de la léproserie de la Bajasse à Brioude, en Auvergne ».
+Entre 1124 et 1151 : sous Algare, évêque de Coutances, « fondation à Bolleville, en Normandie, dans l'ancien canton de la Haye-du-Puits, par Richard de la Haye, […] d'un prieuré de l'abbaye de Lessay à usage de léproserie, placé sous le vocable de Sainte-Marie Madeleine […], établissement élitiste réservé surtout à des membres de la noblesse ».
+1151 (1150-1153) : Pierre Ier, vicomte de Béarn, fonde à Ordios, entre Bordeaux et Ostabat, sur le chemin de Saint-Jacques, un hôpital de pèlerins  qui fonctionnera encore en 1739.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1151_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1151_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fl. Arnaud, médecin dans le diocèse de Tours[7].
-Fl. Aubert, médecin « cité dans une charte de la léproserie des Deux-Eaux[8], près de Troyes en Champagne[7] ».
-1124-1151 : fl. Jean, médecin, propriétaire à Grez-Neuville en Anjou[7].
-1151-1170 : fl. Guillaume, médecin de Henri Ier, comte de Champagne[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fl. Arnaud, médecin dans le diocèse de Tours.
+Fl. Aubert, médecin « cité dans une charte de la léproserie des Deux-Eaux, près de Troyes en Champagne ».
+1124-1151 : fl. Jean, médecin, propriétaire à Grez-Neuville en Anjou.
+1151-1170 : fl. Guillaume, médecin de Henri Ier, comte de Champagne.
 </t>
         </is>
       </c>
